--- a/Tools/Excel2Unity/Excel/TestTable.xlsx
+++ b/Tools/Excel2Unity/Excel/TestTable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
   <si>
     <t>数字索引</t>
   </si>
@@ -92,20 +92,48 @@
     <t>List[Int]</t>
   </si>
   <si>
-    <t>1;2;3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>List[Float]</t>
   </si>
   <si>
     <t>List[String]</t>
   </si>
   <si>
+    <t>LevelAP1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelAP2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Map[int|int]</t>
   </si>
   <si>
-    <t>1,1;2,1;3,1</t>
+    <t>Map1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{""1"":10,""2"":20,""3"":30}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -124,36 +152,19 @@
     <t>Map[string|string]</t>
   </si>
   <si>
-    <t>LevelAP1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelAP2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>"{""1"":""10"",""2"":""20"",""3"":""30""}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"[""1"", ""2"",   ""3""]"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,   2,  3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Float</t>
   </si>
 </sst>
 </file>
@@ -355,8 +366,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -657,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -666,7 +705,12 @@
     <col min="2" max="2" width="36.5" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="21.75" customWidth="1"/>
-    <col min="5" max="13" width="24.375" customWidth="1"/>
+    <col min="5" max="6" width="24.375" customWidth="1"/>
+    <col min="7" max="7" width="38.5" customWidth="1"/>
+    <col min="8" max="9" width="41.375" customWidth="1"/>
+    <col min="10" max="10" width="45.375" customWidth="1"/>
+    <col min="11" max="12" width="41.375" customWidth="1"/>
+    <col min="13" max="13" width="52.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -759,7 +803,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>10</v>
@@ -768,28 +812,28 @@
         <v>21</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -809,28 +853,28 @@
         <v>14</v>
       </c>
       <c r="F4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="M4" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -864,31 +908,31 @@
         <v>5</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -905,31 +949,31 @@
         <v>7</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -946,31 +990,31 @@
         <v>9</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
